--- a/PREM/Zeitaufzeichnungen/ZeitaufzeichnungOktober.xlsx
+++ b/PREM/Zeitaufzeichnungen/ZeitaufzeichnungOktober.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\github_for_school\3DHIF_D_2025_26\PREM\Zeitaufzeichnungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2EA19D37-CB35-49C9-B575-851DD78C7D92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD5C41D-1F69-4E02-891C-9D0B8C92252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8994B6B5-3EE8-4B79-8E8C-C15742DF5D90}"/>
   </bookViews>
@@ -423,10 +423,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E71B8-F788-425D-80A0-4F4CA1A442DE}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,6 +471,22 @@
         <v>45</v>
       </c>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>45950</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>45952</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/PREM/Zeitaufzeichnungen/ZeitaufzeichnungOktober.xlsx
+++ b/PREM/Zeitaufzeichnungen/ZeitaufzeichnungOktober.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti\Documents\GitHub\github_for_school\3DHIF_D_2025_26\PREM\Zeitaufzeichnungen\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DD5C41D-1F69-4E02-891C-9D0B8C92252B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB7F4D4-4D5C-4E16-B261-8529EC5E2811}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{8994B6B5-3EE8-4B79-8E8C-C15742DF5D90}"/>
   </bookViews>
